--- a/biology/Médecine/Luc_Chikhani/Luc_Chikhani.xlsx
+++ b/biology/Médecine/Luc_Chikhani/Luc_Chikhani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luc Chikhani, né le 3 août 1962[1], est un chirurgien maxillofacial français connu pour avoir reconstruit le visage du dernier garde du corps de la princesse Diana, Trevor Rees-Jones[2], après l'accident de voiture qui a causé la mort de Lady Diana Spencer, Dodi Al-Fayed, et leur chauffeur, Henri Paul.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luc Chikhani, né le 3 août 1962, est un chirurgien maxillofacial français connu pour avoir reconstruit le visage du dernier garde du corps de la princesse Diana, Trevor Rees-Jones, après l'accident de voiture qui a causé la mort de Lady Diana Spencer, Dodi Al-Fayed, et leur chauffeur, Henri Paul.
 Il est chef de service stomatologie à l'hôpital européen Georges-Pompidou.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rhabdomyosarcomes à localisation cervico-faciale chez l'enfant : étude générale, s.l., 1993
 Stomatologie, Paris, Ellipses-Marketing, coll. « Internat », 1995, 96 p. (ISBN 2-7298-4580-1)
